--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <r>
       <rPr>
@@ -2155,10 +2155,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>SpringBoot</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>JavaLib</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -2175,10 +2171,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>choerodonTestngTemplate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>#code</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -2188,6 +2180,38 @@
   </si>
   <si>
     <t>choerodonTestngSeleniumTemplate</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>microservice</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>javalib</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>gotemplate</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>microservicefront</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>mochatemplate</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>testngseleniumtemplate</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>testngtemplate</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -3141,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3153,7 +3177,7 @@
     <col min="6" max="6" width="14.58203125" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.08203125" customWidth="1"/>
+    <col min="9" max="9" width="31.08203125" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3193,7 +3217,7 @@
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -3208,7 +3232,7 @@
         <v>57</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>58</v>
@@ -3234,7 +3258,7 @@
         <v>62</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>63</v>
@@ -3260,7 +3284,7 @@
         <v>72</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>63</v>
@@ -3286,7 +3310,7 @@
         <v>73</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>63</v>
@@ -3309,10 +3333,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>63</v>
@@ -3335,10 +3359,10 @@
         <v>61</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>63</v>
@@ -3361,10 +3385,10 @@
         <v>61</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>63</v>
@@ -3387,10 +3411,10 @@
         <v>61</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>63</v>
@@ -3413,10 +3437,10 @@
         <v>61</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>63</v>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <r>
       <rPr>
@@ -2212,6 +2212,41 @@
   </si>
   <si>
     <t>testngtemplate</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端模板（一般用于创建普通类型应用服务）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于ChoerodonFramework和SpringCloud的微服务结构的后端模板（一般用于创建普通类型应用服务） </t>
+  </si>
+  <si>
+    <t>基于SpringBoot的服务模板（一般用于创建普通类型应用服务）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Library开发的模板（一般用于创建普通类型应用服务）  </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golang开发模板（一般用于创建普通类型应用服务）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于TestNG的测试服务模板，用于 API 测试（一般用于创建测试类型服务） </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于TestNG和Selenium的测试服务模板，可以用于测试前端页面（一般用于创建测试类型服务） </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基于Mocha的前端测试框架（一般用于创建测试类型服务）     </t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -3163,10 +3198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3174,14 +3209,16 @@
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="20.9140625" customWidth="1"/>
-    <col min="6" max="6" width="14.58203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.08203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3195,7 +3232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3206,7 +3243,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3243,8 +3280,11 @@
       <c r="L7" s="31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="E8" s="31" t="s">
         <v>54</v>
       </c>
@@ -3269,8 +3309,11 @@
       <c r="L8" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="E9" s="31" t="s">
         <v>65</v>
       </c>
@@ -3295,8 +3338,11 @@
       <c r="L9" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="E10" s="31" t="s">
         <v>66</v>
       </c>
@@ -3321,8 +3367,11 @@
       <c r="L10" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="E11" s="31" t="s">
         <v>67</v>
       </c>
@@ -3347,8 +3396,11 @@
       <c r="L11" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="E12" s="31" t="s">
         <v>68</v>
       </c>
@@ -3373,8 +3425,11 @@
       <c r="L12" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="E13" s="31" t="s">
         <v>69</v>
       </c>
@@ -3399,8 +3454,11 @@
       <c r="L13" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="E14" s="31" t="s">
         <v>70</v>
       </c>
@@ -3425,8 +3483,11 @@
       <c r="L14" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="E15" s="31" t="s">
         <v>71</v>
       </c>
@@ -3450,6 +3511,9 @@
       </c>
       <c r="L15" s="31" t="s">
         <v>64</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:10">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\devops-service\src\main\resources\script\db\init-data\devops_service\devops_service\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowHeight="19420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1999,90 +1888,136 @@
   </si>
   <si>
     <t>choerodon</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>应用模板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops_app_template</t>
   </si>
   <si>
     <t>*id</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>source_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>source_type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>#code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ype</t>
+    </r>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tatus</t>
+    </r>
+  </si>
+  <si>
+    <t>remark</t>
   </si>
   <si>
     <t>devops_app_template-1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>source_id</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>source_type</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ype</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>s</t>
     </r>
     <r>
@@ -2090,171 +2025,161 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tatus</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ite</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MicroServiceFront</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>microservicefront</t>
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端模板（一般用于创建普通类型应用服务）</t>
   </si>
   <si>
     <t>devops_app_template-2</t>
   </si>
   <si>
+    <t>MicroService</t>
+  </si>
+  <si>
+    <t>microservice</t>
+  </si>
+  <si>
+    <t>基于ChoerodonFramework和SpringCloud的微服务结构的后端模板（一般用于创建普通类型应用服务） </t>
+  </si>
+  <si>
     <t>devops_app_template-3</t>
   </si>
   <si>
+    <t>SpringBoot</t>
+  </si>
+  <si>
+    <t>springboot</t>
+  </si>
+  <si>
+    <t>基于SpringBoot的服务模板（一般用于创建普通类型应用服务）</t>
+  </si>
+  <si>
     <t>devops_app_template-4</t>
   </si>
   <si>
+    <t>JavaLib</t>
+  </si>
+  <si>
+    <t>javalib</t>
+  </si>
+  <si>
+    <t>Java Library开发的模板（一般用于创建普通类型应用服务）  </t>
+  </si>
+  <si>
     <t>devops_app_template-5</t>
   </si>
   <si>
+    <t>GoTemplate</t>
+  </si>
+  <si>
+    <t>gotemplate</t>
+  </si>
+  <si>
+    <t>Golang开发模板（一般用于创建普通类型应用服务）</t>
+  </si>
+  <si>
     <t>devops_app_template-6</t>
   </si>
   <si>
+    <t>choerodonMochaTemplate</t>
+  </si>
+  <si>
+    <t>mochatemplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于Mocha的前端测试框架（一般用于创建测试类型服务）     </t>
+  </si>
+  <si>
     <t>devops_app_template-7</t>
   </si>
   <si>
+    <t>choerodonTestngSeleniumTemplate</t>
+  </si>
+  <si>
+    <t>testngseleniumtemplate</t>
+  </si>
+  <si>
+    <t>基于TestNG和Selenium的测试服务模板，可以用于测试前端页面（一般用于创建测试类型服务） </t>
+  </si>
+  <si>
     <t>devops_app_template-8</t>
   </si>
   <si>
-    <t>MicroService</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringBoot</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaLib</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoTemplate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodonMochaTemplate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodonTestngTemplate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>#code</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops_app_template</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodonTestngSeleniumTemplate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>springboot</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>microservice</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>javalib</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>gotemplate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>microservicefront</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>mochatemplate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>testngseleniumtemplate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>testngtemplate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端模板（一般用于创建普通类型应用服务）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于ChoerodonFramework和SpringCloud的微服务结构的后端模板（一般用于创建普通类型应用服务） </t>
-  </si>
-  <si>
-    <t>基于SpringBoot的服务模板（一般用于创建普通类型应用服务）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java Library开发的模板（一般用于创建普通类型应用服务）  </t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golang开发模板（一般用于创建普通类型应用服务）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基于TestNG的测试服务模板，用于 API 测试（一般用于创建测试类型服务） </t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于TestNG和Selenium的测试服务模板，可以用于测试前端页面（一般用于创建测试类型服务） </t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">基于Mocha的前端测试框架（一般用于创建测试类型服务）     </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops_app_template-9</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>PythonTemplate</t>
+  </si>
+  <si>
+    <t>pythontemplate</t>
+  </si>
+  <si>
+    <t>Python开发模版（一般用于创建普通类型应用服务）</t>
+  </si>
+  <si>
+    <t>devops_app_template-10</t>
+  </si>
+  <si>
+    <t>PHPTemplate</t>
+  </si>
+  <si>
+    <t>phptemplate</t>
+  </si>
+  <si>
+    <t>PHP开发模版（一般用于创建普通类型应用服务）</t>
+  </si>
+  <si>
+    <t>devops_app_template-11</t>
+  </si>
+  <si>
+    <t>ASP.NetTemplate</t>
+  </si>
+  <si>
+    <t>aspnetapptemplate</t>
+  </si>
+  <si>
+    <t>基于.NET Framework的Web开发模版（一般用于创建普通类型应用服务）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2265,25 +2190,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2296,6 +2221,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2317,10 +2248,155 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2351,14 +2427,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2367,43 +2441,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2434,8 +2473,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2447,12 +2672,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2477,6 +2718,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2485,26 +2739,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2519,15 +2753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2536,18 +2761,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2555,70 +3022,116 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2691,9 +3204,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2951,274 +3461,277 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5789473684211" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3289473684211" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.0789473684211" customWidth="1"/>
+    <col min="4" max="4" width="35.3289473684211" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.5789473684211" customWidth="1"/>
+    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
+    <col min="7" max="7" width="21.5789473684211" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5789473684211" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.0789473684211" customWidth="1"/>
+    <col min="12" max="12" width="18.5789473684211" customWidth="1"/>
+    <col min="13" max="13" width="13.0789473684211" customWidth="1"/>
+    <col min="14" max="1025" width="10.3289473684211" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
       <c r="A1" s="8"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="32" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="16" spans="1:3">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="20" t="s">
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="23" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="17" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="17" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="25" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="28" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="28" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="28" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="28" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="29" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="18" t="s">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="30" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="25" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="20.9140625" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.9144736842105" customWidth="1"/>
+    <col min="6" max="6" width="9.16447368421053" customWidth="1"/>
+    <col min="7" max="7" width="4.16447368421053" customWidth="1"/>
     <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.82894736842105" customWidth="1"/>
     <col min="12" max="12" width="9.25" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3232,346 +3745,428 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" ht="16" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="J7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="E8" s="31" t="s">
-        <v>54</v>
+      <c r="L7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" ht="16" spans="5:13">
+      <c r="E8" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>63</v>
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="E9" s="31" t="s">
-        <v>65</v>
+      <c r="L8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="16" spans="5:13">
+      <c r="E9" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="31" t="s">
+      <c r="G9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>63</v>
+      <c r="J9" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="31" t="s">
-        <v>64</v>
+      <c r="L9" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="E10" s="31" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" ht="16" spans="5:13">
+      <c r="E10" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>63</v>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="E11" s="31" t="s">
-        <v>67</v>
+      <c r="L10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" ht="16" spans="5:13">
+      <c r="E11" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>63</v>
+      <c r="G11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="E12" s="31" t="s">
+      <c r="L11" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" ht="16" spans="5:13">
+      <c r="E12" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="31" t="s">
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="31" t="s">
-        <v>63</v>
+      <c r="J12" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="E13" s="31" t="s">
-        <v>69</v>
+      <c r="L12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" ht="16" spans="5:13">
+      <c r="E13" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>63</v>
+      <c r="G13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="E14" s="31" t="s">
-        <v>70</v>
+      <c r="L13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" ht="16" spans="5:13">
+      <c r="E14" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>63</v>
+      <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="E15" s="31" t="s">
-        <v>71</v>
+      <c r="L14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" ht="16" spans="5:13">
+      <c r="E15" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>63</v>
+      <c r="G15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="L15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13">
+      <c r="E16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="F28" s="5"/>
+      <c r="E18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
@@ -2160,7 +2160,7 @@
     <t>devops_app_template-11</t>
   </si>
   <si>
-    <t>ASP.NetTemplate</t>
+    <t>ASP.NETTemplate</t>
   </si>
   <si>
     <t>aspnetapptemplate</t>
@@ -3713,8 +3713,8 @@
   <sheetPr/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12090" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <r>
       <rPr>
@@ -2167,6 +2167,18 @@
   </si>
   <si>
     <t>基于.NET Framework的Web开发模版（一般用于创建普通类型应用服务）</t>
+  </si>
+  <si>
+    <t>devops_app_template-12</t>
+  </si>
+  <si>
+    <t>C/C++Template</t>
+  </si>
+  <si>
+    <t>ctemplate</t>
+  </si>
+  <si>
+    <t>c/c++开发模板</t>
   </si>
 </sst>
 </file>
@@ -2175,9 +2187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2225,12 +2237,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2248,18 +2254,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2269,7 +2267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2294,14 +2291,35 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2309,7 +2327,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2323,19 +2356,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2355,35 +2388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2392,8 +2396,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2475,13 +2487,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2493,19 +2553,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2523,19 +2643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2547,115 +2661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2672,28 +2684,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2718,12 +2714,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2735,20 +2749,18 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2765,19 +2777,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2786,7 +2826,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2821,200 +2861,175 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3025,112 +3040,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -3217,7 +3232,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3465,7 +3480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3473,155 +3488,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5789473684211" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3289473684211" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.0789473684211" customWidth="1"/>
-    <col min="4" max="4" width="35.3289473684211" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.5789473684211" customWidth="1"/>
-    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
-    <col min="7" max="7" width="21.5789473684211" customWidth="1"/>
+    <col min="1" max="1" width="15.5777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3259259259259" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="4" max="4" width="35.3259259259259" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5777777777778" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5777777777778" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5789473684211" customWidth="1"/>
+    <col min="9" max="9" width="24.5777777777778" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0789473684211" customWidth="1"/>
-    <col min="12" max="12" width="18.5789473684211" customWidth="1"/>
-    <col min="13" max="13" width="13.0789473684211" customWidth="1"/>
-    <col min="14" max="1025" width="10.3289473684211" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5777777777778" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="14" max="1025" width="10.3259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="23"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="11" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="12" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="18" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="14" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="19" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3630,65 +3645,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="21" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="22" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="22" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="22" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="22" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="25" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3709,25 +3724,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="20.9144736842105" customWidth="1"/>
-    <col min="6" max="6" width="9.16447368421053" customWidth="1"/>
-    <col min="7" max="7" width="4.16447368421053" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="18.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="20.9111111111111" customWidth="1"/>
+    <col min="6" max="6" width="9.16296296296296" customWidth="1"/>
+    <col min="7" max="7" width="4.16296296296296" customWidth="1"/>
+    <col min="8" max="8" width="22.7481481481481" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="8.82894736842105" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="8.82962962962963" customWidth="1"/>
+    <col min="12" max="12" width="9.25185185185185" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3746,291 +3761,291 @@
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" ht="16" spans="1:13">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" ht="16" spans="5:13">
-      <c r="E8" s="2" t="s">
+    <row r="8" spans="5:13">
+      <c r="E8" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="5" t="s">
         <v>67</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" ht="16" spans="5:13">
-      <c r="E9" s="2" t="s">
+    <row r="9" spans="5:13">
+      <c r="E9" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="5" t="s">
         <v>67</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="5" t="s">
         <v>68</v>
       </c>
       <c r="M9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" ht="16" spans="5:13">
-      <c r="E10" s="2" t="s">
+    <row r="10" spans="5:13">
+      <c r="E10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="5" t="s">
         <v>67</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" ht="16" spans="5:13">
-      <c r="E11" s="2" t="s">
+    <row r="11" spans="5:13">
+      <c r="E11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="5" t="s">
         <v>67</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="5:13">
-      <c r="E12" s="2" t="s">
+    <row r="12" spans="5:13">
+      <c r="E12" s="5" t="s">
         <v>82</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="5" t="s">
         <v>67</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" ht="16" spans="5:13">
-      <c r="E13" s="2" t="s">
+    <row r="13" spans="5:13">
+      <c r="E13" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="5" t="s">
         <v>67</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" ht="16" spans="5:13">
-      <c r="E14" s="2" t="s">
+    <row r="14" spans="5:13">
+      <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="5" t="s">
         <v>67</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" ht="16" spans="5:13">
-      <c r="E15" s="2" t="s">
+    <row r="15" spans="5:13">
+      <c r="E15" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="5" t="s">
         <v>67</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="5:13">
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F16">
@@ -4059,7 +4074,7 @@
       </c>
     </row>
     <row r="17" spans="5:13">
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F17">
@@ -4088,16 +4103,16 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>99</v>
       </c>
       <c r="H18" t="s">
@@ -4119,50 +4134,75 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="2"/>
-      <c r="G19" s="2"/>
+    <row r="19" spans="5:13">
+      <c r="E19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="5:7">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="5:7">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="5:7">
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="5:7">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="2"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="2"/>
+      <c r="F28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12090" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="8964" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2186,12 +2186,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2220,6 +2220,13 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2260,8 +2267,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2274,21 +2296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2297,8 +2304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2312,14 +2327,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2335,9 +2351,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2356,16 +2372,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2380,15 +2396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2487,25 +2494,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2517,13 +2524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2535,13 +2536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2559,13 +2560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2577,7 +2572,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2589,7 +2608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2601,7 +2632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2613,43 +2644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2661,13 +2662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2774,11 +2781,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2798,15 +2811,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2818,6 +2822,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2846,17 +2859,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2874,159 +2881,160 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3037,44 +3045,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3087,7 +3095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3232,7 +3240,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3488,155 +3496,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3259259259259" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3259259259259" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5777777777778" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5777777777778" customWidth="1"/>
+    <col min="1" max="1" width="15.5763888888889" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3263888888889" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.3263888888889" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5763888888889" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5763888888889" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5777777777778" customWidth="1"/>
+    <col min="9" max="9" width="24.5763888888889" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5777777777778" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
-    <col min="14" max="1025" width="10.3259259259259" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5763888888889" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="14" max="1025" width="10.3263888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="12"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="30" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3646,38 +3654,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -3685,25 +3693,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3729,20 +3737,20 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
-    <col min="4" max="4" width="18.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="20.9111111111111" customWidth="1"/>
-    <col min="6" max="6" width="9.16296296296296" customWidth="1"/>
-    <col min="7" max="7" width="4.16296296296296" customWidth="1"/>
-    <col min="8" max="8" width="22.7481481481481" customWidth="1"/>
+    <col min="2" max="2" width="8.50694444444444" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="20.9097222222222" customWidth="1"/>
+    <col min="6" max="6" width="9.15972222222222" customWidth="1"/>
+    <col min="7" max="7" width="4.15972222222222" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="8.82962962962963" customWidth="1"/>
-    <col min="12" max="12" width="9.25185185185185" customWidth="1"/>
+    <col min="10" max="10" width="8.82638888888889" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3842,7 +3850,7 @@
       </c>
     </row>
     <row r="9" spans="5:13">
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F9">
@@ -3900,7 +3908,7 @@
       </c>
     </row>
     <row r="11" spans="5:13">
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F11">
@@ -4144,7 +4152,7 @@
       <c r="G19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>112</v>
       </c>
       <c r="I19" t="s">

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_app_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8964" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11820" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <r>
       <rPr>
@@ -2046,18 +2046,6 @@
     <t>前端模板（一般用于创建普通类型应用服务）</t>
   </si>
   <si>
-    <t>devops_app_template-2</t>
-  </si>
-  <si>
-    <t>MicroService</t>
-  </si>
-  <si>
-    <t>microservice</t>
-  </si>
-  <si>
-    <t>基于ChoerodonFramework和SpringCloud的微服务结构的后端模板（一般用于创建普通类型应用服务） </t>
-  </si>
-  <si>
     <t>devops_app_template-3</t>
   </si>
   <si>
@@ -2070,18 +2058,6 @@
     <t>基于SpringBoot的服务模板（一般用于创建普通类型应用服务）</t>
   </si>
   <si>
-    <t>devops_app_template-4</t>
-  </si>
-  <si>
-    <t>JavaLib</t>
-  </si>
-  <si>
-    <t>javalib</t>
-  </si>
-  <si>
-    <t>Java Library开发的模板（一般用于创建普通类型应用服务）  </t>
-  </si>
-  <si>
     <t>devops_app_template-5</t>
   </si>
   <si>
@@ -2092,42 +2068,6 @@
   </si>
   <si>
     <t>Golang开发模板（一般用于创建普通类型应用服务）</t>
-  </si>
-  <si>
-    <t>devops_app_template-6</t>
-  </si>
-  <si>
-    <t>choerodonMochaTemplate</t>
-  </si>
-  <si>
-    <t>mochatemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于Mocha的前端测试框架（一般用于创建测试类型服务）     </t>
-  </si>
-  <si>
-    <t>devops_app_template-7</t>
-  </si>
-  <si>
-    <t>choerodonTestngSeleniumTemplate</t>
-  </si>
-  <si>
-    <t>testngseleniumtemplate</t>
-  </si>
-  <si>
-    <t>基于TestNG和Selenium的测试服务模板，可以用于测试前端页面（一般用于创建测试类型服务） </t>
-  </si>
-  <si>
-    <t>devops_app_template-8</t>
-  </si>
-  <si>
-    <t>choerodonTestngTemplate</t>
-  </si>
-  <si>
-    <t>testngtemplate</t>
-  </si>
-  <si>
-    <t>基于TestNG的测试服务模板，用于 API 测试（一般用于创建测试类型服务） </t>
   </si>
   <si>
     <t>devops_app_template-9</t>
@@ -2186,12 +2126,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2220,13 +2160,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2275,22 +2208,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2313,51 +2260,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2369,6 +2271,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2396,6 +2306,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2413,6 +2339,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2494,7 +2427,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2506,139 +2493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2650,7 +2523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2668,13 +2541,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2781,21 +2714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2859,6 +2777,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2881,106 +2814,136 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2989,52 +2952,21 @@
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3045,44 +2977,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3095,7 +3027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3496,155 +3428,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5763888888889" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3263888888889" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.3263888888889" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5763888888889" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5763888888889" customWidth="1"/>
+    <col min="1" max="1" width="15.5777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3259259259259" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="4" max="4" width="35.3259259259259" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5777777777778" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5777777777778" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5763888888889" customWidth="1"/>
+    <col min="9" max="9" width="24.5777777777778" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5763888888889" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
-    <col min="14" max="1025" width="10.3263888888889" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5777777777778" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="14" max="1025" width="10.3259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="29" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3654,38 +3586,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -3693,25 +3625,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3734,23 +3666,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="2" width="8.50694444444444" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="20.9097222222222" customWidth="1"/>
-    <col min="6" max="6" width="9.15972222222222" customWidth="1"/>
-    <col min="7" max="7" width="4.15972222222222" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="18.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="20.9111111111111" customWidth="1"/>
+    <col min="6" max="6" width="9.16296296296296" customWidth="1"/>
+    <col min="7" max="7" width="4.16296296296296" customWidth="1"/>
+    <col min="8" max="8" width="22.7481481481481" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="8.82638888888889" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="8.82962962962963" customWidth="1"/>
+    <col min="12" max="12" width="9.25185185185185" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3850,7 +3782,7 @@
       </c>
     </row>
     <row r="9" spans="5:13">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F9">
@@ -3874,7 +3806,7 @@
       <c r="L9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3908,272 +3840,152 @@
       </c>
     </row>
     <row r="11" spans="5:13">
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="H11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
         <v>67</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>81</v>
+      <c r="M11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="5:13">
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
         <v>67</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13">
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
         <v>67</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>89</v>
+      <c r="M13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="5:13">
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="G14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
         <v>67</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13">
-      <c r="E15" s="5" t="s">
+      <c r="M14" t="s">
         <v>94</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13">
-      <c r="E16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13">
-      <c r="E17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13">
-      <c r="E19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" t="s">
-        <v>114</v>
-      </c>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="5:7">
@@ -4181,36 +3993,11 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="5"/>
+    <row r="22" spans="6:6">
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" s="5"/>
+    </row>
+    <row r="23" spans="6:6">
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
